--- a/ch3/population.xlsx
+++ b/ch3/population.xlsx
@@ -1,81 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="33780" yWindow="9960" windowWidth="12740" windowHeight="11300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stats_104102" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stats_104102" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>시도별 인구 변동 현황 [단위 : 천명]</t>
-  </si>
-  <si>
-    <t>계</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>경기</t>
-  </si>
-  <si>
-    <t>강원</t>
-  </si>
-  <si>
-    <t>충북</t>
-  </si>
-  <si>
-    <t>충남</t>
-  </si>
-  <si>
-    <t>전북</t>
-  </si>
-  <si>
-    <t>전남</t>
-  </si>
-  <si>
-    <t>경북</t>
-  </si>
-  <si>
-    <t>경남</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,7 +22,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,7 +30,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,7 +73,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +81,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,7 +89,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color rgb="FF9C5700"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,7 +97,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +106,7 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,7 +115,7 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,7 +123,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,7 +132,7 @@
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +140,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,7 +149,7 @@
       <family val="2"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,7 +158,7 @@
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,21 +166,19 @@
       <charset val="129"/>
       <family val="2"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
+      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="10"/>
@@ -576,119 +509,268 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="18" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
-    <cellStyle builtinId="15" name="제목" xfId="1"/>
-    <cellStyle builtinId="16" name="제목 1" xfId="2"/>
-    <cellStyle builtinId="17" name="제목 2" xfId="3"/>
-    <cellStyle builtinId="18" name="제목 3" xfId="4"/>
-    <cellStyle builtinId="19" name="제목 4" xfId="5"/>
-    <cellStyle builtinId="26" name="좋음" xfId="6"/>
-    <cellStyle builtinId="27" name="나쁨" xfId="7"/>
-    <cellStyle builtinId="28" name="보통" xfId="8"/>
-    <cellStyle builtinId="20" name="입력" xfId="9"/>
-    <cellStyle builtinId="21" name="출력" xfId="10"/>
-    <cellStyle builtinId="22" name="계산" xfId="11"/>
-    <cellStyle builtinId="24" name="연결된 셀" xfId="12"/>
-    <cellStyle builtinId="23" name="셀 확인" xfId="13"/>
-    <cellStyle builtinId="11" name="경고문" xfId="14"/>
-    <cellStyle builtinId="10" name="메모" xfId="15"/>
-    <cellStyle builtinId="53" name="설명 텍스트" xfId="16"/>
-    <cellStyle builtinId="25" name="요약" xfId="17"/>
-    <cellStyle builtinId="29" name="강조색1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - 강조색1" xfId="19"/>
-    <cellStyle builtinId="31" name="40% - 강조색1" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 강조색1" xfId="21"/>
-    <cellStyle builtinId="33" name="강조색2" xfId="22"/>
-    <cellStyle builtinId="34" name="20% - 강조색2" xfId="23"/>
-    <cellStyle builtinId="35" name="40% - 강조색2" xfId="24"/>
-    <cellStyle builtinId="36" name="60% - 강조색2" xfId="25"/>
-    <cellStyle builtinId="37" name="강조색3" xfId="26"/>
-    <cellStyle builtinId="38" name="20% - 강조색3" xfId="27"/>
-    <cellStyle builtinId="39" name="40% - 강조색3" xfId="28"/>
-    <cellStyle builtinId="40" name="60% - 강조색3" xfId="29"/>
-    <cellStyle builtinId="41" name="강조색4" xfId="30"/>
-    <cellStyle builtinId="42" name="20% - 강조색4" xfId="31"/>
-    <cellStyle builtinId="43" name="40% - 강조색4" xfId="32"/>
-    <cellStyle builtinId="44" name="60% - 강조색4" xfId="33"/>
-    <cellStyle builtinId="45" name="강조색5" xfId="34"/>
-    <cellStyle builtinId="46" name="20% - 강조색5" xfId="35"/>
-    <cellStyle builtinId="47" name="40% - 강조색5" xfId="36"/>
-    <cellStyle builtinId="48" name="60% - 강조색5" xfId="37"/>
-    <cellStyle builtinId="49" name="강조색6" xfId="38"/>
-    <cellStyle builtinId="50" name="20% - 강조색6" xfId="39"/>
-    <cellStyle builtinId="51" name="40% - 강조색6" xfId="40"/>
-    <cellStyle builtinId="52" name="60% - 강조색6" xfId="41"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="제목" xfId="1" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27"/>
+    <cellStyle name="보통" xfId="8" builtinId="28"/>
+    <cellStyle name="입력" xfId="9" builtinId="20"/>
+    <cellStyle name="출력" xfId="10" builtinId="21"/>
+    <cellStyle name="계산" xfId="11" builtinId="22"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11"/>
+    <cellStyle name="메모" xfId="15" builtinId="10"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53"/>
+    <cellStyle name="요약" xfId="17" builtinId="25"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29"/>
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -993,663 +1075,766 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J1"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.9" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="4.375"/>
-    <col bestFit="1" customWidth="1" max="10" min="2" style="7" width="6.0625"/>
+    <col width="4.5703125" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="6.28515625" bestFit="1" customWidth="1" style="6" min="2" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>시도별 인구 변동 현황 [단위 : 천명]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="2" t="n">
-        <v>2007</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>2008</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="E2" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>2015</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>49269</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>49540</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="I2" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>계</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>49773</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>50515</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>50734</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>50948</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>51141</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>51328</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>51529</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>10193</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>10201</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="I3" s="2" t="n">
+        <v>51696</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>51778</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>51826</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>10208</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>10312</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>10250</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>10195</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>10144</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>10103</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>10022</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>3587</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>3565</v>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="I4" s="2" t="n">
+        <v>9930</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>9857</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>9766</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>3543</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <v>3568</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>3551</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>3538</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <v>3528</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="G5" s="2" t="n">
         <v>3519</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>3513</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="I5" s="2" t="n">
+        <v>3498</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>3470</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2489</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2512</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2508</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>2506</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2502</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>2493</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>2493</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>2489</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>2512</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>2508</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>2506</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>2502</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>2493</v>
-      </c>
-      <c r="J6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>2487</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>2665</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>2693</v>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="I6" s="2" t="n">
+        <v>2484</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>2475</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>2710</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="C7" s="2" t="n">
         <v>2758</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>2801</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>2844</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>2880</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="G7" s="2" t="n">
         <v>2903</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>2925</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1413</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>1423</v>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="I7" s="2" t="n">
+        <v>2943</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>2948</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>1433</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="C8" s="2" t="n">
         <v>1455</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>1463</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>1469</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="F8" s="2" t="n">
         <v>1473</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="G8" s="2" t="n">
         <v>1476</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="H8" s="2" t="n">
         <v>1472</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>1476</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>1481</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="I8" s="2" t="n">
+        <v>1469</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1463</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>1484</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="C9" s="2" t="n">
         <v>1504</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>1516</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>1525</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="2" t="n">
         <v>1533</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="G9" s="2" t="n">
         <v>1532</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="H9" s="2" t="n">
         <v>1518</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>1112</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="I9" s="2" t="n">
+        <v>1514</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1502</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>1114</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="C10" s="2" t="n">
         <v>1126</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>1136</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>1147</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <v>1156</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="G10" s="2" t="n">
         <v>1166</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="H10" s="2" t="n">
         <v>1173</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="n">
+      <c r="I10" s="2" t="n">
+        <v>1172</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1165</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>세종</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="F11" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="G11" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="H11" s="3" t="n">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>11106</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>11292</v>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="I11" s="3" t="n">
+        <v>243</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>280</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>11460</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="C12" s="2" t="n">
         <v>11787</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>11937</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>12093</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>12235</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="G12" s="2" t="n">
         <v>12358</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="H12" s="2" t="n">
         <v>12522</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>1504</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1509</v>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="I12" s="2" t="n">
+        <v>12716</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>12873</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>13077</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>1512</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="C13" s="2" t="n">
         <v>1530</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="D13" s="2" t="n">
         <v>1536</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>1539</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>1542</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="G13" s="2" t="n">
         <v>1544</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="H13" s="2" t="n">
         <v>1549</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>1507</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1520</v>
-      </c>
-      <c r="D14" s="3" t="n">
+      <c r="I13" s="2" t="n">
+        <v>1550</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>1550</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>1527</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="C14" s="2" t="n">
         <v>1549</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="D14" s="2" t="n">
         <v>1563</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>1566</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="F14" s="2" t="n">
         <v>1573</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="G14" s="2" t="n">
         <v>1579</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="H14" s="2" t="n">
         <v>1583</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>1996</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="I14" s="2" t="n">
+        <v>1591</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>1594</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>2037</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="C15" s="2" t="n">
         <v>2075</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="D15" s="2" t="n">
         <v>2101</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>2029</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <v>2048</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="G15" s="2" t="n">
         <v>2062</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="H15" s="2" t="n">
         <v>2077</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>1862</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>1856</v>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="I15" s="2" t="n">
+        <v>2096</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>2116</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>1854</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="C16" s="2" t="n">
         <v>1869</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="D16" s="2" t="n">
         <v>1874</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>1873</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="F16" s="2" t="n">
         <v>1873</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="G16" s="2" t="n">
         <v>1872</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="H16" s="2" t="n">
         <v>1869</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1930</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>1919</v>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="I16" s="2" t="n">
+        <v>1864</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>1854</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>1913</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="C17" s="2" t="n">
         <v>1918</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="D17" s="2" t="n">
         <v>1914</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="E17" s="2" t="n">
         <v>1910</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="F17" s="2" t="n">
         <v>1907</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="G17" s="2" t="n">
         <v>1906</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="H17" s="2" t="n">
         <v>1908</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>2681</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>2674</v>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="I17" s="2" t="n">
+        <v>1903</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>1896</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>2669</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="C18" s="2" t="n">
         <v>2690</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="D18" s="2" t="n">
         <v>2699</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>2698</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="F18" s="2" t="n">
         <v>2699</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="G18" s="2" t="n">
         <v>2701</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="H18" s="2" t="n">
         <v>2702</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>3197</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>3225</v>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="I18" s="2" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>2691</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>3250</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="C19" s="2" t="n">
         <v>3291</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="D19" s="2" t="n">
         <v>3309</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>3319</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="F19" s="2" t="n">
         <v>3333</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="G19" s="2" t="n">
         <v>3350</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="H19" s="2" t="n">
         <v>3364</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>559</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>561</v>
-      </c>
-      <c r="D20" s="4" t="n">
+      <c r="I19" s="2" t="n">
+        <v>3373</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>3380</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
         <v>562</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="C20" s="3" t="n">
         <v>571</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="D20" s="3" t="n">
         <v>576</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="E20" s="3" t="n">
         <v>584</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="F20" s="3" t="n">
         <v>593</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <v>607</v>
       </c>
-      <c r="J20" s="4" t="n">
+      <c r="H20" s="3" t="n">
         <v>624</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="8" t="n">
-        <v>39076</v>
-      </c>
-      <c r="C21" s="8" t="n">
-        <v>39339</v>
-      </c>
-      <c r="D21" s="8" t="n">
+      <c r="I20" s="3" t="n">
+        <v>641</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>657</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="7" t="n">
         <v>39565</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="C21" s="7" t="n">
         <v>40203</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="D21" s="7" t="n">
         <v>40484</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="E21" s="7" t="n">
         <v>40753</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="F21" s="7" t="n">
         <v>40997</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="G21" s="7" t="n">
         <v>41225</v>
       </c>
-      <c r="J21" s="8" t="n">
+      <c r="H21" s="7" t="n">
         <v>41507</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>41766</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>41921</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>42060</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>